--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,894 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7125</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏军工安全灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6577</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>57.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9407</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>164402</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中航军工指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8943</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>580009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东吴多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4294,4 +4295,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.2668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9130</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4617,4 +4618,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>34.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4626,7 +4627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4637,17 +4638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4657,14 +4678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.01</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4673,14 +4716,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>39.51</v>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4689,14 +4754,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.54</v>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9050</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4705,13 +4792,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5682</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>48</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>34.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5291,7 +5292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5302,17 +5303,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5322,14 +5343,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.35</v>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7993</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5338,14 +5381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.01</v>
       </c>
     </row>
     <row r="4">
@@ -5354,14 +5419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.51</v>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5370,14 +5457,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.54</v>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -5386,13 +5495,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>48</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>34.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5690,7 +5691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5701,17 +5702,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5721,14 +5742,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.08</v>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5737,14 +5780,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.35</v>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5753,14 +5818,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.01</v>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>64.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5769,14 +5856,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>39.51</v>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5785,14 +5894,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>27</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.54</v>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5801,13 +5932,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>39.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>27</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>48</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>34.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.08</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>9.35</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>9.01</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>39.51</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>32.54</v>
+        <v>39.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>27</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>48</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>34.84</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1281,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1945,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3157,7 +3572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4239,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
+++ b/数据整理/stocks/A股/深证主板/002414-高德红外.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.08</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>9.35</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>9.01</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>39.51</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>32.54</v>
+        <v>39.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1908 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>48</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>34.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>239.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>162.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.1105</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6727</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160630</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证国防指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6976</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证军工指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证军工龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1739</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1151</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8472</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4840</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000596</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4428</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>163115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证军工指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512670</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证国防ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002199</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源中证军工指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2946</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2713</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160643</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501019</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰国证航天军工指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证空天一体军工指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达军工指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512810</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝兴业中证军工ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519656</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002567</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成国家安全主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519657</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>66.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2512,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159743</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证湖北新旧动能转换ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +3515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,7 +3913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,7 +4577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2682,7 +4899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3572,7 +5789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4652,1882 +6869,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发科技先锋混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>239.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11.1221</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162703</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>162.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>7.1105</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512660</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>102.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.6727</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160630</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证国防指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>70.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.6976</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证军工指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>76.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.5033</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512710</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证军工龙头ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.1739</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>070099</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实优质企业混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>30.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1151</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>512680</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>24.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8472</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008150</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实远见企业精选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>17.73</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4840</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>000596</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.71</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4428</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>163115</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证军工指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.48</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4154</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512670</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华中证国防ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.27</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3300</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002199</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源中证军工指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2946</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000870</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实新收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2713</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1833</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160643</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1831</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501019</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国泰国证航天军工指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1767</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010364</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏华中证空天一体军工指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1675</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009132</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0919</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512560</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>易方达中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0583</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>502003</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>易方达军工指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0581</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>512810</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝兴业中证军工ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>98.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0456</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>519656</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0291</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>008838</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0267</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004314</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002567</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>大成国家安全主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>83.41</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>167702</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003717</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>519657</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银河灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>60.30</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>002630</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0108</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>002631</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>江信瑞福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>85.32</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>004315</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>81.27</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001899</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>东海中证社会发展安全产业主题指数</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>91.16</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>167703</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>德邦量化优选股票(LOF)C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008839</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>66.58</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>005126</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>银河量化稳进混合</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.92</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>95.23</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>010484</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>中银量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>90.96</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>